--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound8.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound8.xlsx
@@ -100,6 +100,15 @@
     <t>Quincy, MA</t>
   </si>
   <si>
+    <t>NOLA</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Metarie, LA</t>
+  </si>
+  <si>
     <t>OGDC</t>
   </si>
   <si>
@@ -109,13 +118,13 @@
     <t>Germantown, MD</t>
   </si>
   <si>
-    <t>NOLA</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Metarie, LA</t>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Bridgeview, IL</t>
   </si>
   <si>
     <t>SD</t>
@@ -125,15 +134,6 @@
   </si>
   <si>
     <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Bridgeview, IL</t>
   </si>
 </sst>
 </file>
@@ -173,6 +173,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B8F1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFC50A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,15 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B8F1"/>
+      <color rgb="FF99EAFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,14 +222,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC81C22"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF99EAFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,6 +256,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB98E2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF092051"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,13 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB98E2D"/>
+        <fgColor rgb="FF00653C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00AA"/>
+        <fgColor rgb="FF10069E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,18 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00653C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF10069E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +350,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,23 +755,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.8141594604236562</v>
+        <v>0.8054317309185535</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.5999423801074913</v>
+        <v>0.4436686037450766</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.4555155088430916</v>
+        <v>0.6429901831770959</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.5412204741358707</v>
+        <v>0.4652304262791476</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.5001919599800736</v>
+        <v>0.4665934499372976</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -780,23 +780,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.9996196269798702</v>
+        <v>0.9995928987887809</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.8895035645061147</v>
+        <v>0.9612809145621476</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.9636647911034325</v>
+        <v>0.8837027272689445</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.9842972262707838</v>
+        <v>0.8761472104829731</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.8828002958441334</v>
+        <v>0.9832978720652251</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -805,23 +805,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>81.38497761308275</v>
+        <v>80.51038386853422</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>53.36508856038959</v>
+        <v>42.64901611705782</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>43.89642576736516</v>
+        <v>56.82121784807579</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>53.2721811492896</v>
+        <v>40.76103402162796</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>44.15696102492659</v>
+        <v>45.88003464429168</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -830,34 +830,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.5114811</v>
+        <v>0.4998454</v>
       </c>
       <c r="C6" s="14">
-        <v>0.4885189</v>
+        <v>0.4766486</v>
       </c>
       <c r="E6" s="14">
-        <v>0.3068498</v>
+        <v>0.5965226</v>
       </c>
       <c r="F6" s="14">
-        <v>0.6931502</v>
+        <v>0.3729296</v>
       </c>
       <c r="H6" s="14">
-        <v>0.6117441</v>
+        <v>0.2958218</v>
       </c>
       <c r="I6" s="14">
-        <v>0.3882559</v>
+        <v>0.6837722000000001</v>
       </c>
       <c r="K6" s="14">
-        <v>0.5736369</v>
+        <v>0.6864318</v>
       </c>
       <c r="L6" s="14">
-        <v>0.4263631</v>
+        <v>0.288393</v>
       </c>
       <c r="N6" s="14">
-        <v>0.6987609</v>
+        <v>0.5595348</v>
       </c>
       <c r="O6" s="14">
-        <v>0.3012391</v>
+        <v>0.4119892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -865,34 +865,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>27.6281116</v>
+        <v>27.6334842</v>
       </c>
       <c r="C7" s="15">
-        <v>27.0946868</v>
+        <v>27.0950582</v>
       </c>
       <c r="E7" s="15">
-        <v>22.231628</v>
+        <v>21.5185376</v>
       </c>
       <c r="F7" s="15">
-        <v>30.943443</v>
+        <v>17.278901</v>
       </c>
       <c r="H7" s="15">
-        <v>21.5148094</v>
+        <v>22.2214418</v>
       </c>
       <c r="I7" s="15">
-        <v>17.2918924</v>
+        <v>30.9671592</v>
       </c>
       <c r="K7" s="15">
-        <v>21.317105</v>
+        <v>28.883239</v>
       </c>
       <c r="L7" s="15">
-        <v>18.4778126</v>
+        <v>19.7857416</v>
       </c>
       <c r="N7" s="15">
-        <v>28.8777902</v>
+        <v>21.3297798</v>
       </c>
       <c r="O7" s="15">
-        <v>19.7970528</v>
+        <v>18.4791182</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -906,28 +906,28 @@
         <v>8</v>
       </c>
       <c r="E8" s="15">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="I8" s="15">
         <v>11</v>
       </c>
-      <c r="H8" s="15">
+      <c r="K8" s="15">
+        <v>9</v>
+      </c>
+      <c r="L8" s="15">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15">
         <v>6</v>
       </c>
-      <c r="I8" s="15">
-        <v>3</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="O8" s="15">
         <v>5</v>
-      </c>
-      <c r="L8" s="15">
-        <v>5</v>
-      </c>
-      <c r="N8" s="15">
-        <v>9</v>
-      </c>
-      <c r="O8" s="15">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -944,22 +944,22 @@
         <v>8</v>
       </c>
       <c r="F9" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H9" s="15">
         <v>8</v>
       </c>
       <c r="I9" s="15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K9" s="15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L9" s="15">
         <v>7</v>
       </c>
       <c r="N9" s="15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O9" s="15">
         <v>7</v>
@@ -979,25 +979,25 @@
         <v>10</v>
       </c>
       <c r="F10" s="15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H10" s="15">
         <v>10</v>
       </c>
       <c r="I10" s="15">
+        <v>18</v>
+      </c>
+      <c r="K10" s="15">
+        <v>15</v>
+      </c>
+      <c r="L10" s="15">
         <v>7</v>
       </c>
-      <c r="K10" s="15">
+      <c r="N10" s="15">
         <v>10</v>
       </c>
-      <c r="L10" s="15">
+      <c r="O10" s="15">
         <v>9</v>
-      </c>
-      <c r="N10" s="15">
-        <v>15</v>
-      </c>
-      <c r="O10" s="15">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1014,25 +1014,25 @@
         <v>12</v>
       </c>
       <c r="F11" s="15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H11" s="15">
         <v>12</v>
       </c>
       <c r="I11" s="15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K11" s="15">
+        <v>17</v>
+      </c>
+      <c r="L11" s="15">
+        <v>10</v>
+      </c>
+      <c r="N11" s="15">
         <v>12</v>
       </c>
-      <c r="L11" s="15">
+      <c r="O11" s="15">
         <v>11</v>
-      </c>
-      <c r="N11" s="15">
-        <v>17</v>
-      </c>
-      <c r="O11" s="15">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1046,25 +1046,25 @@
         <v>18</v>
       </c>
       <c r="E12" s="15">
+        <v>13</v>
+      </c>
+      <c r="F12" s="15">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
         <v>14</v>
       </c>
-      <c r="F12" s="15">
+      <c r="I12" s="15">
         <v>22</v>
       </c>
-      <c r="H12" s="15">
-        <v>13</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
       <c r="K12" s="15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="15">
         <v>12</v>
       </c>
       <c r="N12" s="15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O12" s="15">
         <v>12</v>
@@ -1084,25 +1084,25 @@
         <v>15</v>
       </c>
       <c r="F13" s="15">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H13" s="15">
         <v>15</v>
       </c>
       <c r="I13" s="15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K13" s="15">
+        <v>21</v>
+      </c>
+      <c r="L13" s="15">
+        <v>14</v>
+      </c>
+      <c r="N13" s="15">
         <v>15</v>
       </c>
-      <c r="L13" s="15">
+      <c r="O13" s="15">
         <v>13</v>
-      </c>
-      <c r="N13" s="15">
-        <v>21</v>
-      </c>
-      <c r="O13" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1119,22 +1119,22 @@
         <v>17</v>
       </c>
       <c r="F14" s="15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H14" s="15">
         <v>17</v>
       </c>
       <c r="I14" s="15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K14" s="15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L14" s="15">
         <v>14</v>
       </c>
       <c r="N14" s="15">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O14" s="15">
         <v>14</v>
@@ -1151,25 +1151,25 @@
         <v>23</v>
       </c>
       <c r="E15" s="15">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15">
+        <v>14</v>
+      </c>
+      <c r="H15" s="15">
         <v>19</v>
       </c>
-      <c r="F15" s="15">
+      <c r="I15" s="15">
         <v>27</v>
       </c>
-      <c r="H15" s="15">
-        <v>17</v>
-      </c>
-      <c r="I15" s="15">
-        <v>14</v>
-      </c>
       <c r="K15" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="15">
         <v>15</v>
       </c>
       <c r="N15" s="15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O15" s="15">
         <v>15</v>
@@ -1186,28 +1186,28 @@
         <v>25</v>
       </c>
       <c r="E16" s="15">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15">
         <v>20</v>
       </c>
-      <c r="F16" s="15">
+      <c r="I16" s="15">
         <v>28</v>
       </c>
-      <c r="H16" s="15">
+      <c r="K16" s="15">
+        <v>26</v>
+      </c>
+      <c r="L16" s="15">
+        <v>17</v>
+      </c>
+      <c r="N16" s="15">
         <v>19</v>
       </c>
-      <c r="I16" s="15">
-        <v>15</v>
-      </c>
-      <c r="K16" s="15">
-        <v>19</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="O16" s="15">
         <v>16</v>
-      </c>
-      <c r="N16" s="15">
-        <v>26</v>
-      </c>
-      <c r="O16" s="15">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1221,28 +1221,28 @@
         <v>26</v>
       </c>
       <c r="E17" s="15">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15">
+        <v>16</v>
+      </c>
+      <c r="H17" s="15">
         <v>21</v>
       </c>
-      <c r="F17" s="15">
+      <c r="I17" s="15">
         <v>30</v>
       </c>
-      <c r="H17" s="15">
+      <c r="K17" s="15">
+        <v>28</v>
+      </c>
+      <c r="L17" s="15">
+        <v>19</v>
+      </c>
+      <c r="N17" s="15">
         <v>20</v>
       </c>
-      <c r="I17" s="15">
-        <v>16</v>
-      </c>
-      <c r="K17" s="15">
-        <v>20</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="O17" s="15">
         <v>18</v>
-      </c>
-      <c r="N17" s="15">
-        <v>28</v>
-      </c>
-      <c r="O17" s="15">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1259,25 +1259,25 @@
         <v>22</v>
       </c>
       <c r="F18" s="15">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H18" s="15">
         <v>22</v>
       </c>
       <c r="I18" s="15">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K18" s="15">
+        <v>29</v>
+      </c>
+      <c r="L18" s="15">
+        <v>20</v>
+      </c>
+      <c r="N18" s="15">
         <v>22</v>
       </c>
-      <c r="L18" s="15">
+      <c r="O18" s="15">
         <v>19</v>
-      </c>
-      <c r="N18" s="15">
-        <v>29</v>
-      </c>
-      <c r="O18" s="15">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1291,28 +1291,28 @@
         <v>29</v>
       </c>
       <c r="E19" s="15">
+        <v>23</v>
+      </c>
+      <c r="F19" s="15">
+        <v>19</v>
+      </c>
+      <c r="H19" s="15">
         <v>24</v>
       </c>
-      <c r="F19" s="15">
+      <c r="I19" s="15">
         <v>33</v>
       </c>
-      <c r="H19" s="15">
+      <c r="K19" s="15">
+        <v>31</v>
+      </c>
+      <c r="L19" s="15">
+        <v>21</v>
+      </c>
+      <c r="N19" s="15">
         <v>23</v>
       </c>
-      <c r="I19" s="15">
-        <v>19</v>
-      </c>
-      <c r="K19" s="15">
-        <v>23</v>
-      </c>
-      <c r="L19" s="15">
+      <c r="O19" s="15">
         <v>20</v>
-      </c>
-      <c r="N19" s="15">
-        <v>31</v>
-      </c>
-      <c r="O19" s="15">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1326,28 +1326,28 @@
         <v>31</v>
       </c>
       <c r="E20" s="15">
+        <v>25</v>
+      </c>
+      <c r="F20" s="15">
+        <v>20</v>
+      </c>
+      <c r="H20" s="15">
         <v>26</v>
       </c>
-      <c r="F20" s="15">
+      <c r="I20" s="15">
         <v>35</v>
       </c>
-      <c r="H20" s="15">
+      <c r="K20" s="15">
+        <v>33</v>
+      </c>
+      <c r="L20" s="15">
+        <v>24</v>
+      </c>
+      <c r="N20" s="15">
         <v>25</v>
       </c>
-      <c r="I20" s="15">
-        <v>20</v>
-      </c>
-      <c r="K20" s="15">
-        <v>25</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="O20" s="15">
         <v>21</v>
-      </c>
-      <c r="N20" s="15">
-        <v>33</v>
-      </c>
-      <c r="O20" s="15">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>27</v>
       </c>
       <c r="F21" s="15">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H21" s="15">
         <v>27</v>
       </c>
       <c r="I21" s="15">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K21" s="15">
+        <v>35</v>
+      </c>
+      <c r="L21" s="15">
+        <v>25</v>
+      </c>
+      <c r="N21" s="15">
         <v>26</v>
       </c>
-      <c r="L21" s="15">
+      <c r="O21" s="15">
         <v>23</v>
-      </c>
-      <c r="N21" s="15">
-        <v>35</v>
-      </c>
-      <c r="O21" s="15">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1396,28 +1396,28 @@
         <v>35</v>
       </c>
       <c r="E22" s="15">
+        <v>28</v>
+      </c>
+      <c r="F22" s="15">
+        <v>23</v>
+      </c>
+      <c r="H22" s="15">
         <v>29</v>
       </c>
-      <c r="F22" s="15">
+      <c r="I22" s="15">
         <v>39</v>
       </c>
-      <c r="H22" s="15">
+      <c r="K22" s="15">
+        <v>38</v>
+      </c>
+      <c r="L22" s="15">
+        <v>27</v>
+      </c>
+      <c r="N22" s="15">
         <v>28</v>
       </c>
-      <c r="I22" s="15">
-        <v>23</v>
-      </c>
-      <c r="K22" s="15">
-        <v>28</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="O22" s="15">
         <v>24</v>
-      </c>
-      <c r="N22" s="15">
-        <v>38</v>
-      </c>
-      <c r="O22" s="15">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1431,28 +1431,28 @@
         <v>37</v>
       </c>
       <c r="E23" s="15">
+        <v>31</v>
+      </c>
+      <c r="F23" s="15">
+        <v>25</v>
+      </c>
+      <c r="H23" s="15">
         <v>32</v>
       </c>
-      <c r="F23" s="15">
+      <c r="I23" s="15">
         <v>42</v>
       </c>
-      <c r="H23" s="15">
-        <v>31</v>
-      </c>
-      <c r="I23" s="15">
-        <v>25</v>
-      </c>
       <c r="K23" s="15">
+        <v>40</v>
+      </c>
+      <c r="L23" s="15">
+        <v>29</v>
+      </c>
+      <c r="N23" s="15">
         <v>30</v>
       </c>
-      <c r="L23" s="15">
+      <c r="O23" s="15">
         <v>26</v>
-      </c>
-      <c r="N23" s="15">
-        <v>40</v>
-      </c>
-      <c r="O23" s="15">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1466,28 +1466,28 @@
         <v>40</v>
       </c>
       <c r="E24" s="15">
+        <v>33</v>
+      </c>
+      <c r="F24" s="15">
+        <v>27</v>
+      </c>
+      <c r="H24" s="15">
         <v>34</v>
       </c>
-      <c r="F24" s="15">
+      <c r="I24" s="15">
         <v>44</v>
       </c>
-      <c r="H24" s="15">
+      <c r="K24" s="15">
+        <v>43</v>
+      </c>
+      <c r="L24" s="15">
+        <v>31</v>
+      </c>
+      <c r="N24" s="15">
         <v>33</v>
       </c>
-      <c r="I24" s="15">
-        <v>27</v>
-      </c>
-      <c r="K24" s="15">
-        <v>33</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="O24" s="15">
         <v>28</v>
-      </c>
-      <c r="N24" s="15">
-        <v>43</v>
-      </c>
-      <c r="O24" s="15">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1501,28 +1501,28 @@
         <v>44</v>
       </c>
       <c r="E25" s="15">
+        <v>36</v>
+      </c>
+      <c r="F25" s="15">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15">
         <v>38</v>
       </c>
-      <c r="F25" s="15">
+      <c r="I25" s="15">
         <v>48</v>
       </c>
-      <c r="H25" s="15">
+      <c r="K25" s="15">
+        <v>47</v>
+      </c>
+      <c r="L25" s="15">
+        <v>35</v>
+      </c>
+      <c r="N25" s="15">
         <v>36</v>
       </c>
-      <c r="I25" s="15">
+      <c r="O25" s="15">
         <v>31</v>
-      </c>
-      <c r="K25" s="15">
-        <v>36</v>
-      </c>
-      <c r="L25" s="15">
-        <v>31</v>
-      </c>
-      <c r="N25" s="15">
-        <v>47</v>
-      </c>
-      <c r="O25" s="15">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1536,28 +1536,28 @@
         <v>49</v>
       </c>
       <c r="E26" s="15">
+        <v>41</v>
+      </c>
+      <c r="F26" s="15">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15">
         <v>43</v>
       </c>
-      <c r="F26" s="15">
+      <c r="I26" s="15">
         <v>54</v>
       </c>
-      <c r="H26" s="15">
+      <c r="K26" s="15">
+        <v>53</v>
+      </c>
+      <c r="L26" s="15">
+        <v>40</v>
+      </c>
+      <c r="N26" s="15">
         <v>41</v>
       </c>
-      <c r="I26" s="15">
+      <c r="O26" s="15">
         <v>35</v>
-      </c>
-      <c r="K26" s="15">
-        <v>41</v>
-      </c>
-      <c r="L26" s="15">
-        <v>35</v>
-      </c>
-      <c r="N26" s="15">
-        <v>53</v>
-      </c>
-      <c r="O26" s="15">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
